--- a/biology/Histoire de la zoologie et de la botanique/Ignaz_von_Olfers/Ignaz_von_Olfers.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ignaz_von_Olfers/Ignaz_von_Olfers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ignaz von Olfers est un naturaliste et un diplomate allemand, né le 30 août 1793 à Münster et mort le 23 avril 1871.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il part en 1816 comme diplomate au Brésil. En 1838, il devient le directeur du Muséum impérial de Berlin (l'actuel musée d'histoire naturelle de Berlin). Olfers décrit de nombreux mammifères dans le Journal von Brasilien de Wilhelm Ludwig von Eschwege (1777-1855).
 </t>
@@ -542,7 +556,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il épouse le 3 décembre 1823 à Berlin Hedwig von Staegemann (1799-1891), la fille du juriste-poète et conseiller d'État prussien Friedrich August von Stägemann (1763-1840) et d'Elisabeth Fischer gesch. Graun (1761-1835). Quatre enfants sont issus de ce mariage :
 Johanna (Nina) (1824-1901) marié avec Ludwig Yorck von Wartenburg (1805-1865)
